--- a/_Out/NFDataCfg/Excel/Security.xlsx
+++ b/_Out/NFDataCfg/Excel/Security.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -699,7 +699,7 @@
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="b">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -707,7 +707,7 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="b">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="b">
+      <c r="B5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -723,7 +723,7 @@
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="b">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -731,7 +731,7 @@
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
       <c r="A8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="b">
+      <c r="B9" s="3">
         <v>0</v>
       </c>
     </row>
